--- a/xlsx/patch_test.xlsx
+++ b/xlsx/patch_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/code/hrbc-plate/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\code\hrbc-plate\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1209BC1-3B5A-ED42-8711-268882D54F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21179EB2-1749-4FA5-A10C-4B566DF4BEBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="5400" windowWidth="28240" windowHeight="17440" xr2:uid="{98355472-3819-464D-B1CA-90B2AEB33399}"/>
+    <workbookView xWindow="11475" yWindow="5400" windowWidth="28245" windowHeight="17445" activeTab="3" xr2:uid="{98355472-3819-464D-B1CA-90B2AEB33399}"/>
   </bookViews>
   <sheets>
     <sheet name="cubic_2" sheetId="1" r:id="rId1"/>
@@ -23,20 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>GI-Penalty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +63,17 @@
   </si>
   <si>
     <t>H3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.19359653165444146,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.16808822366389156,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1679720677405092, </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,8 +120,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,16 +443,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76B8648-4987-9C4B-9E7D-551A5F46904F}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -460,45 +466,215 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2">
+        <v>3.9081592826522599E-2</v>
+      </c>
+      <c r="C2">
+        <v>9.2108943214987193E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.37285990947384101</v>
+      </c>
+      <c r="E2">
+        <v>3.62181386038062</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3">
+        <v>3.9065983715566598E-2</v>
+      </c>
+      <c r="C3">
+        <v>9.2047942199701194E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.37232014871132701</v>
+      </c>
+      <c r="E3">
+        <v>3.6816768244803901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4">
+        <v>4.5750277254265802E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.10669973116562199</v>
+      </c>
+      <c r="D4">
+        <v>0.40859849678238003</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.54264617032036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" s="1">
+        <v>1.04258813685043E-15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.7948474787939802E-14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.64820492682476E-12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.65635688099488E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.9482715646771099E-14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.2450993326046001E-13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.7712580273444096E-12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.26108034835352E-10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC92AFC6-F6FE-7E43-A03B-0C3F76DFABA0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D15:D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9.1350058825923397E-2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0.51007002562508497</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.9939009256062801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9.1312976904950896E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>0.50923049953563604</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.0602491963327001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.10651830753148001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>0.55515866373384004</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.81582879768281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.1186978895551E-15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.2413736449585203E-14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.03178542534588E-12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.35099393441674E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.5040378437580301E-14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.92423224837824E-13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.3828018932657196E-12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.6689462942337897E-11</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -506,12 +682,117 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD208D4F-EF9E-8C43-8710-B40B02A4DA56}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.10278714110312399</v>
+      </c>
+      <c r="C2">
+        <v>0.186522606639663</v>
+      </c>
+      <c r="D2">
+        <v>0.536107192819539</v>
+      </c>
+      <c r="E2">
+        <v>2.2355185222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.102696353252755</v>
+      </c>
+      <c r="C3">
+        <v>0.186191133304659</v>
+      </c>
+      <c r="D3">
+        <v>0.53460126596811097</v>
+      </c>
+      <c r="E3">
+        <v>2.2369857712572698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.106534058415908</v>
+      </c>
+      <c r="C4">
+        <v>0.19368338808397301</v>
+      </c>
+      <c r="D4">
+        <v>0.556845125938632</v>
+      </c>
+      <c r="E4">
+        <v>2.0196730783667198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.32077156370471E-15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.9593933802923299E-13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.2092975266039599E-12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.7000050424944101E-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.02150274019542E-13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.10999691699383E-13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.04896769763152E-11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.3622193554956202E-10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -519,14 +800,117 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA4241D-5209-3045-A42B-46B6CE2E27D7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.17919910202279099</v>
+      </c>
+      <c r="C2">
+        <v>0.26993455951240702</v>
+      </c>
+      <c r="D2">
+        <v>0.63223122088574601</v>
+      </c>
+      <c r="E2">
+        <v>2.0132743169124598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.17915480643340101</v>
+      </c>
+      <c r="C3">
+        <v>0.26956123221759198</v>
+      </c>
+      <c r="D3">
+        <v>0.63098137024004297</v>
+      </c>
+      <c r="E3">
+        <v>2.03452323138041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.183615727958334</v>
+      </c>
+      <c r="C4">
+        <v>0.27713630078920898</v>
+      </c>
+      <c r="D4">
+        <v>0.65209971513934095</v>
+      </c>
+      <c r="E4">
+        <v>1.8859421376399701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.6386667670276304E-15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.77106601981065E-13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.0060839195285503E-12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8.5804090278144896E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6.8077532773498995E-14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.29396665667197E-13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.9878930961002392E-12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.3173369019998499E-10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
